--- a/ValueSet-vs-erregernachweis-qualifier.xlsx
+++ b/ValueSet-vs-erregernachweis-qualifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-16T21:59:32+00:00</t>
+    <t>2022-06-17T08:52:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-erregernachweis-qualifier.xlsx
+++ b/ValueSet-vs-erregernachweis-qualifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-17T08:52:13+00:00</t>
+    <t>2022-07-06T12:38:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-erregernachweis-qualifier.xlsx
+++ b/ValueSet-vs-erregernachweis-qualifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-06T12:38:37+00:00</t>
+    <t>2022-07-20T12:33:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-erregernachweis-qualifier.xlsx
+++ b/ValueSet-vs-erregernachweis-qualifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T12:33:19+00:00</t>
+    <t>2022-08-08T12:51:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-erregernachweis-qualifier.xlsx
+++ b/ValueSet-vs-erregernachweis-qualifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T12:51:52+00:00</t>
+    <t>2022-08-09T15:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-erregernachweis-qualifier.xlsx
+++ b/ValueSet-vs-erregernachweis-qualifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T15:04:17+00:00</t>
+    <t>2022-08-18T12:34:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-erregernachweis-qualifier.xlsx
+++ b/ValueSet-vs-erregernachweis-qualifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T12:34:44+00:00</t>
+    <t>2022-08-18T12:40:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-erregernachweis-qualifier.xlsx
+++ b/ValueSet-vs-erregernachweis-qualifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T12:40:08+00:00</t>
+    <t>2022-08-18T12:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-erregernachweis-qualifier.xlsx
+++ b/ValueSet-vs-erregernachweis-qualifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T12:42:22+00:00</t>
+    <t>2022-08-18T12:48:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-erregernachweis-qualifier.xlsx
+++ b/ValueSet-vs-erregernachweis-qualifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T12:48:30+00:00</t>
+    <t>2022-08-18T13:03:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-vs-erregernachweis-qualifier.xlsx
+++ b/ValueSet-vs-erregernachweis-qualifier.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T13:03:54+00:00</t>
+    <t>2022-08-25T08:38:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
